--- a/judo-tatami-asm2rdbms/model/RDBMS Table Mapping Rules.xlsx
+++ b/judo-tatami-asm2rdbms/model/RDBMS Table Mapping Rules.xlsx
@@ -14,8 +14,7 @@
   <sheets>
     <sheet name="TableMappingRule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -150,7 +149,7 @@
     <t>JoinTable</t>
   </si>
   <si>
-    <t>InvRangeConstraint</t>
+    <t>InverseRangeConstraint</t>
   </si>
 </sst>
 </file>
@@ -554,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1022"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
